--- a/500all/speech_level/speeches_CHRG-114hhrg99578.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99578.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412649</t>
   </si>
   <si>
-    <t>John Katko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Katko. The Committee on Homeland Security Subcommittee on Transportation Security will come to order. The subcommittee is meeting today to hear testimony on assessing the future of the Transportation Security Administration. I now recognize myself for an opening statement.    I would like to welcome everyone to today's hearing and I am pleased to have Inspector General Roth back once again and Administrator Neffenger again back here as well. The purpose of today's hearing is to examine TSA's challenges and identify what changes TSA needs to make in order to move forward in an effective manner.    TSA was created out of a tragedy and was quickly stood up to address major security vulnerabilities that terrorists exploited. However, 14 years after 9/11, we now have an agency that has had many missteps in its efforts to keep the traveling public safe.    Inspector General Roth, your office has conducted over 100 audits identifying major security vulnerabilities and organizational challenges throughout TSA, including the most recent reports that found that TSA passenger screening was allegedly wrong 96 percent of the time. And that 73 aviation workers had potential ties to terrorism. Of course, there is also the recent cases involving drug trafficking incidents in airports at Dallas/Fort Worth, Los Angeles International, and Oakland, to name a few involving employees. These figures are startling and shatter the public confidence.    I look forward to hearing from you today about what systemic problems you have identified and what needs to be done to help TSA address these challenges.    What is most unfortunate is that these startling findings by both your office, and the Government Accountability Office, as well as the FBI and other agencies, are not isolated instances. Many of these vulnerabilities have been identified and known for years, and unfortunately, prior to this year the previous leadership in both TSA and DHS did not take the appropriate steps to address these known security vulnerabilities. The purpose of today's hearing is not to look backwards, however.    With new leadership, Administrator Neffenger, you have an opportunity to address these challenges head on, and lead TSA in a different path, and I am confident that you will do so. In our discussions you have been frank, straightforward, and sincere and I appreciate that. I have full confidence that you are tackling TSA's challenges with an open mind. I look forward to hearing from you today about how we can work together to ensure TSA fulfills its critical mission.    This subcommittee has worked tirelessly and in an overwhelmingly bipartisan manner to address the challenges that TSA faces. Since the start of this Congress we have had 7 pieces of legislation pass the House, which is remarkable out of this committee, and 2 of those bills are now public laws. However, there is no silver bullet to address all of the challenges that TSA faces, and unfortunately, we have to be right 100 percent of the time and the terrorists have to be right just once.    With nearly 2 million passengers being screened every day we need to do more to better focus our efforts on those passengers that are unknown while still taking precautions to protect against the insider threat.    Currently, less than 5 percent of travellers participate in PreCheck. TSA needs to increase this population so that it can target its efforts and resources in a more risk-based manner. That is why I introduced H.R. 2843, the PreCheck Expansion Act. This bill will help TSA to take steps to effectively and robustly market the program and dramatically increase the enrollment. However, in addition to expanding PreCheck, TSA must look at what additional efforts are necessary to increase the security effectiveness of PreCheck and what measures are necessary to mitigate the insider threat.    This week the House passed H.R. 3102, the Airport Access Control Security Improvement Act of 2015. This legislation which I introduced earlier this year requires TSA to consult with Federal and private-sector partners to review existing employee screening protocols and work in a comprehensive manner to improve the effectiveness of access controls at airports across the United States. It is a major undertaking.    We must do a better job at knowing more about the people who work and travel through our Nation's airports. Securing our Nation's transportation systems is of vital importance to both our National security, and our economic strength, and stability.    In the 9/11 Commission report, the then head of the CIA, George Tenet was quoted as saying, ``The system was blinking red,'' in the months leading up to 9/11. We cannot stand idly by and grant tacit approval to lax security measures when we have the authority, responsibility, and indeed the duty to spur action and keep the traveling public safe from harm.    Inspector General Roth, Administrator Neffenger, this committee wants to support both of you in your efforts to reform TSA. We look forward to hearing from you today. You are not on opposite sides of the fence. I view you both on the same side of the fence: One exposing the problems, the other one making sure they get fixed. That is why you are both here today.    With that, I recognize the Ranking Member of the subcommittee, the gentlelady from New York, Miss Rice for an opening statement.    Miss Rice. Thank you, Mr. Chairman, and thank you for convening this hearing. I would also like to thank the witnesses for being here today to discuss the need for and status of reforms and improvements within the TSA.    Administrator Neffenger, I understand you had to adjust your schedule in order to testify before this subcommittee today and I want to tell you how much we appreciate that. While you have only been in this position since June, you have demonstrate a true commitment to work constructively with us as you take on the challenges facing TSA and I thank you for that.    Finally, I want to thank Inspector General Roth for being here today and for the work you have done and continue to do, to identify vulnerabilities within TSA and advise us on what we can do to enhance the security of our commercial aviation sector. Your most recent report which is Classified, concerns covert tests conducted by undercover DHS investigators who attempted to smuggle prohibited items, including weapons and mock explosives past TSA security checkpoints. As we all know the results of these covert tests were leaked to the media in June before the report was complete, and it was reported that in 67 out of 70 tests, TSA failed to detect these items and allowed the investigators to proceed past the checkpoint.    Sixty-seven out of 70, that is 96 percent of the time. I think we can all agree that 96 percent is an alarming figure, and one that we cannot overlook. We have to assess all of the findings and recommendations in your report. We have to shine a light on the vulnerabilities that these covert tests have exposed, and we have to take action to eliminate those vulnerabilities.    We know that the threats to this country, particularly to our aviation sector, are constant. They are real. We know those threats are evolving and becoming more sophisticated, but the people who want to do us harm are always on the watch for a new way in, a new way to beat the system. That is why we have to be even more vigilant. That is why we conduct these tests. Because we know that no matter how good our security might be, it can be better. It can always be better and the findings in this report make it clear that it can and must be much better in order to match the threats that we face today.    So I am eager to hear how our witnesses are working together to act on these findings, to implement reforms, and to close the gaps that these covert tests uncovered.    Obviously, as we all know, Administrator Neffenger, you have only been in your position for a few months. Many of the topics and reports that Inspector General Roth has compiled pre-date your time at TSA, but I certainly look forward to hearing what TSA is doing in response to this most recent report, and if Inspector General Roth has previously identified other security gaps or vulnerabilities that TSA must still address, I would like to learn about those efforts as well.    Mr. Chairman, thank you again for convening this hearing. I look forward to productive dialogue today. I yield back the balance of my time.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400402</t>
   </si>
   <si>
-    <t>Bennie G. Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you very much, Chairman Katko and Ranking Member Rice, for holding today's hearing. Also, I welcome the administrator and the Inspector General for their appearance also.    Throughout this Congress, this committee has voiced its concern with the state of security within the commercial aviation sector. Over the span of recent years, both Inspector General and the Government Accountability Office, have compiled numerous reports that detail mismanagement, inefficiencies, and vulnerabilities within TSA. These reports range from vulnerabilities associated with granting expedited screening via the use of Secure Flight and Managed Inclusion, to vulnerabilities associated with access to secure areas of airports, and the tracking of maintenance for security-related technologies within airports.    Most recently, the Inspector General released a report Covert Testing of TSA's Passenger Screening Technologies and Processes at Airport Security Checkpoints. Details of this Classified report were leaked this summer and the Inspector General has given a briefing on the final report to this subcommittee. While I look forward to hearing the status of solutions that TSA and DHS are implementing to ensure that any security gaps associated with checkpoint screening and technologies are secure, our main concern is that TSA will continue to purchase more technologies that address the threats of yesterday instead of the threats of tomorrow.    Consequently, the Transportation Security Administration Reform and Improvement Act of 2015, a bill that recently passed the committee, includes language that aims to aid in the development and innovative security technologies through a program that would create public and private-sector partnerships to help businesses, particularly small businesses, to commercialize these innovative technologies. While that amendment is designed to improve the technologies TSA uses, I still have concerns about some of TSA's other screening programs the Inspector General has found ineffective.    For example, the Inspector General has found that TSA's behavioral detection program commonly referred to as SPOT is a magnet for racial profiling, and TSA has little evidence that the program is an effective tool for screening passengers. We know that terrorists span all races, in all ethnicities, and have a profiling mechanism as a means of security is skeptical. Once again, I ask the administrator to review its efficiency of the behavioral detection program.    While the administrator appeared before the committee on July 1, I, along with many of my colleagues across the aisle, stated that we would give him appropriate time to address some of these glaring concerns at TSA. So Mr. Administrator, we are glad to have you. I would assume the honeymoon is about over, and we can move forward. So I look forward to your testimony and I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Roth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roth. You are close, yes.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t xml:space="preserve">    Mr. Katko. Those questions are indeed forthcoming, but before that Mr. Roth, I want to thank you for your testimony. I appreciate you being here.    I want to hear from our second witness, Administrator Neffenger, who I am sure the honeymoon is indeed over. You were confirmed in June 2015 as the sixth administrator of the TSA. You lead the security operations at more than 450 airports within the United States, and a workforce of almost 60,000 employees. Prior to joining TSA, Administrator Neffenger served admirably as the 29th vice commandant of the U.S. Coast Guard, and the Coast Guard's deputy commandant for operations. The Chair now recognizes Admiral Neffenger for his testimony.</t>
   </si>
   <si>
-    <t>Neffenger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Neffenger. Thank you, and good afternoon Chairman Katko, Ranking Member Rice, distinguished Members of the subcommittee, and thank you for the opportunity to testify on my vision for answering these concerns and evolving the Transportation Security Administration.    As you noted, Mr. Chairman, TSA was founded from crisis, and has continued to evolve throughout its existence. Careful and sustained oversight by Congress, and audits by the Inspector General and GAO are critical elements of this process, and I am a strong supporter of such. I thank you for the support each of you has provided in exercising that oversight. I also want to thank Inspector General Roth for identifying areas for improvement in TSA. I met with him prior to my confirmation and met with him again during my first month as administrator to relay the seriousness with which I take his work. His team has been invaluable in helping us to identify the root causes of the recent covert testing results, and I thank him for his encouraging assessment of our new direction.    That direction is a reflection of my vision on how we approach the continuing evolution of TSA. As you noted, I am now 3 months into the job, and during that time, I have traveled to about 15 airports and numerous Federal Air Marshal offices across the country. I have also visited our partners in the United Kingdom, France, and the Netherlands, and I met with our stakeholders from the airlines, travel industry, and airport operators from major airports, including Los Angeles, Atlanta, Dallas, and Chicago. I have also been engaging with surface stakeholders and passenger rail and light rail both here and in Europe.    Throughout all of these visits, I have been thoroughly impressed with the professionals who occupy our ranks. I am speaking specifically of our front-line transportation security officers. In addition to our air marshals, our inspectors, and other employees, each of whom swore an oath to serve their Nation in a mission that encounters nearly 2 million travelers a day in the aviation sector alone. I have been impressed with the collaboration I have seen across the transportation enterprise and I am pleased that the range of capabilities our Federal, State, and local partners bring to bear across every sector.    These complex systems require that we systematically examine them and consider them as a whole; that we integrate this wide range of public and private capabilities, that we benchmark and apply best practices across the enterprise, and that we seek global consistency.    I can assure you that as we move forward, we remain an intelligence-driven, risk-based counterterrorism agency with a well-defined statement of mission, clear and unequivocal standards of performance, training, and resourcing that enabled the workforce to achieve success, and a relentless pursuit of excellence and accountability.    We will conduct counterterrorism operations with discipline and competence. We will invest in deliberately developing our workforce, and we will field advance capabilities responsive to a pervasive and dynamic threat. We have a no-fail mission, one for which the consequences of a successful attack overwhelm the risk equation and for which we must ensure we deliver mission success.    My immediate priority is to pursue solutions to the recent covert testing failures and I believe we are making significant progress in doing so. In response to the IG's findings, we have implemented an action plan to ensure leadership accountability, improve alarm resolution, increase effectiveness and deterrence, increase threat testing, and strengthen our procedures.    We have also responded vigorously to Secretary Johnson's 10-point plan to review and assess screening operations, including training for the entire screening workforce, testing and improving the technology, and implementing these new procedures. We will continue to implement this plan of action and provide regular updates to you and to the Secretary.    Of utmost concern is determining root causes for the failures noted. Our conclusion is that the screening effectiveness challenges were not merely a performance problem, nor were they a failure of the advanced imaging technology. Indeed, this technology has greatly enhanced our ability to detect threats and it continues to perform to expected standards when deployed and used properly.    Strong drivers of the problem, however, include leadership focus, environmental influences, and gaps in system design and processes along with a disproportionate focus on efficiency and speed in screening operations rather than security and effectiveness. These powerfully influenced organizational culture and officer performance. As a result, there was significant pressure to clear passengers quickly at the risk of not diligently resolving alarms.    Our analysis also revealed our officers did not fully understand the capabilities and limitations of the equipment and several procedures were inadequate to resolve alarms. We have trained our officers to understand and use the equipment properly and we have corrected our procedures. Solutions require a renewed focus on security, streamlined effective procedures, investments in technology, and realistic, consistent, standardized training along with a new balance between effectiveness and efficiency. We must support our officers as they perform their duties.    We will continue to partner with our airlines and other members of the travel and airport industry to ensure that we can reduce stress on the checkpoint and we will right-size and re-source TSA appropriately. Our near-term solutions will halt further reductions in officer staffing to support our revised screening efforts, provide consistent high-quality training at a centralized location, and enhance our technology.    Our Mission Essentials Training conducted over the past 2 months with every front-line officer and leader across TSA has helped to reset our focus on security effectiveness, and most critically, has enhanced our officers' knowledge of the screening systems that they operate.    I refer repeatedly how valuable this information is to our officers. I need to now extend that into our new-hire training across the country. We need greater consistency and efficiency in its delivery, and we must do more to establish a professional foundation that is required of a high-performing counterterrorism organization.    As such, I am committed to expanding our existing TSA Academy at the Federal Law Enforcement Training Center and plan to send all new-hire TSOs to basic training beginning in January 2016. Centralized training in a formal, professional academy ensures consistency and professionalism, produces greater enthusiasm, increased confidence and skills, and connectedness to a common agency culture and focus on mission.    We must ensure the appropriate measures of effectiveness are in place to drive an institutional focus on our primary mission. We must employ a culture of operational evolution, one that constantly reassesses assumptions, plans, and processes, so we are able to rapidly field new concepts of operation and we must deliver an effective system and earn the confidence of the traveling public through competence, discipline, performance, and professionalism.    We face a critical turning point in evolving TSA, both to address these recent findings and begin our investment in a strategic approach to securing the transportation sector. As such, I am committed to ensuring that we do so, that we employ multiple elements in intelligence-driven operations, while discarding a one-size-fits-all approach that we recruit and retain a highly-trained workforce, with accountability and high standards of performance.    Chairman Katko, Ranking Member Rice, we have an incredible challenge ahead of us, but I know that TSA is up to the task. I thank you for the opportunity to appear before you today, and I look forward to your questions.</t>
   </si>
   <si>
@@ -155,9 +143,6 @@
   </si>
   <si>
     <t>412435</t>
-  </si>
-  <si>
-    <t>William R. Keating</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman. It was only me, anyway.</t>
@@ -586,11 +571,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -612,11 +595,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -636,13 +617,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -664,11 +643,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -688,13 +665,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -716,11 +691,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -740,13 +713,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -768,11 +739,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -792,13 +761,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -820,11 +787,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -844,13 +809,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -872,11 +835,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -896,13 +857,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -924,11 +883,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -948,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -974,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1002,11 +955,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1026,13 +977,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1052,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1078,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1104,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1130,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1156,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1182,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1208,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1234,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1262,11 +1195,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1288,11 +1219,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1312,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1340,11 +1267,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1364,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1390,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1416,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>47</v>
-      </c>
-      <c r="H34" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1442,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1468,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1494,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1520,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" t="s">
-        <v>47</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1548,11 +1459,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99578.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99578.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412649</t>
   </si>
   <si>
+    <t>Katko</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Katko. The Committee on Homeland Security Subcommittee on Transportation Security will come to order. The subcommittee is meeting today to hear testimony on assessing the future of the Transportation Security Administration. I now recognize myself for an opening statement.    I would like to welcome everyone to today's hearing and I am pleased to have Inspector General Roth back once again and Administrator Neffenger again back here as well. The purpose of today's hearing is to examine TSA's challenges and identify what changes TSA needs to make in order to move forward in an effective manner.    TSA was created out of a tragedy and was quickly stood up to address major security vulnerabilities that terrorists exploited. However, 14 years after 9/11, we now have an agency that has had many missteps in its efforts to keep the traveling public safe.    Inspector General Roth, your office has conducted over 100 audits identifying major security vulnerabilities and organizational challenges throughout TSA, including the most recent reports that found that TSA passenger screening was allegedly wrong 96 percent of the time. And that 73 aviation workers had potential ties to terrorism. Of course, there is also the recent cases involving drug trafficking incidents in airports at Dallas/Fort Worth, Los Angeles International, and Oakland, to name a few involving employees. These figures are startling and shatter the public confidence.    I look forward to hearing from you today about what systemic problems you have identified and what needs to be done to help TSA address these challenges.    What is most unfortunate is that these startling findings by both your office, and the Government Accountability Office, as well as the FBI and other agencies, are not isolated instances. Many of these vulnerabilities have been identified and known for years, and unfortunately, prior to this year the previous leadership in both TSA and DHS did not take the appropriate steps to address these known security vulnerabilities. The purpose of today's hearing is not to look backwards, however.    With new leadership, Administrator Neffenger, you have an opportunity to address these challenges head on, and lead TSA in a different path, and I am confident that you will do so. In our discussions you have been frank, straightforward, and sincere and I appreciate that. I have full confidence that you are tackling TSA's challenges with an open mind. I look forward to hearing from you today about how we can work together to ensure TSA fulfills its critical mission.    This subcommittee has worked tirelessly and in an overwhelmingly bipartisan manner to address the challenges that TSA faces. Since the start of this Congress we have had 7 pieces of legislation pass the House, which is remarkable out of this committee, and 2 of those bills are now public laws. However, there is no silver bullet to address all of the challenges that TSA faces, and unfortunately, we have to be right 100 percent of the time and the terrorists have to be right just once.    With nearly 2 million passengers being screened every day we need to do more to better focus our efforts on those passengers that are unknown while still taking precautions to protect against the insider threat.    Currently, less than 5 percent of travellers participate in PreCheck. TSA needs to increase this population so that it can target its efforts and resources in a more risk-based manner. That is why I introduced H.R. 2843, the PreCheck Expansion Act. This bill will help TSA to take steps to effectively and robustly market the program and dramatically increase the enrollment. However, in addition to expanding PreCheck, TSA must look at what additional efforts are necessary to increase the security effectiveness of PreCheck and what measures are necessary to mitigate the insider threat.    This week the House passed H.R. 3102, the Airport Access Control Security Improvement Act of 2015. This legislation which I introduced earlier this year requires TSA to consult with Federal and private-sector partners to review existing employee screening protocols and work in a comprehensive manner to improve the effectiveness of access controls at airports across the United States. It is a major undertaking.    We must do a better job at knowing more about the people who work and travel through our Nation's airports. Securing our Nation's transportation systems is of vital importance to both our National security, and our economic strength, and stability.    In the 9/11 Commission report, the then head of the CIA, George Tenet was quoted as saying, ``The system was blinking red,'' in the months leading up to 9/11. We cannot stand idly by and grant tacit approval to lax security measures when we have the authority, responsibility, and indeed the duty to spur action and keep the traveling public safe from harm.    Inspector General Roth, Administrator Neffenger, this committee wants to support both of you in your efforts to reform TSA. We look forward to hearing from you today. You are not on opposite sides of the fence. I view you both on the same side of the fence: One exposing the problems, the other one making sure they get fixed. That is why you are both here today.    With that, I recognize the Ranking Member of the subcommittee, the gentlelady from New York, Miss Rice for an opening statement.    Miss Rice. Thank you, Mr. Chairman, and thank you for convening this hearing. I would also like to thank the witnesses for being here today to discuss the need for and status of reforms and improvements within the TSA.    Administrator Neffenger, I understand you had to adjust your schedule in order to testify before this subcommittee today and I want to tell you how much we appreciate that. While you have only been in this position since June, you have demonstrate a true commitment to work constructively with us as you take on the challenges facing TSA and I thank you for that.    Finally, I want to thank Inspector General Roth for being here today and for the work you have done and continue to do, to identify vulnerabilities within TSA and advise us on what we can do to enhance the security of our commercial aviation sector. Your most recent report which is Classified, concerns covert tests conducted by undercover DHS investigators who attempted to smuggle prohibited items, including weapons and mock explosives past TSA security checkpoints. As we all know the results of these covert tests were leaked to the media in June before the report was complete, and it was reported that in 67 out of 70 tests, TSA failed to detect these items and allowed the investigators to proceed past the checkpoint.    Sixty-seven out of 70, that is 96 percent of the time. I think we can all agree that 96 percent is an alarming figure, and one that we cannot overlook. We have to assess all of the findings and recommendations in your report. We have to shine a light on the vulnerabilities that these covert tests have exposed, and we have to take action to eliminate those vulnerabilities.    We know that the threats to this country, particularly to our aviation sector, are constant. They are real. We know those threats are evolving and becoming more sophisticated, but the people who want to do us harm are always on the watch for a new way in, a new way to beat the system. That is why we have to be even more vigilant. That is why we conduct these tests. Because we know that no matter how good our security might be, it can be better. It can always be better and the findings in this report make it clear that it can and must be much better in order to match the threats that we face today.    So I am eager to hear how our witnesses are working together to act on these findings, to implement reforms, and to close the gaps that these covert tests uncovered.    Obviously, as we all know, Administrator Neffenger, you have only been in your position for a few months. Many of the topics and reports that Inspector General Roth has compiled pre-date your time at TSA, but I certainly look forward to hearing what TSA is doing in response to this most recent report, and if Inspector General Roth has previously identified other security gaps or vulnerabilities that TSA must still address, I would like to learn about those efforts as well.    Mr. Chairman, thank you again for convening this hearing. I look forward to productive dialogue today. I yield back the balance of my time.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400402</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Bennie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you very much, Chairman Katko and Ranking Member Rice, for holding today's hearing. Also, I welcome the administrator and the Inspector General for their appearance also.    Throughout this Congress, this committee has voiced its concern with the state of security within the commercial aviation sector. Over the span of recent years, both Inspector General and the Government Accountability Office, have compiled numerous reports that detail mismanagement, inefficiencies, and vulnerabilities within TSA. These reports range from vulnerabilities associated with granting expedited screening via the use of Secure Flight and Managed Inclusion, to vulnerabilities associated with access to secure areas of airports, and the tracking of maintenance for security-related technologies within airports.    Most recently, the Inspector General released a report Covert Testing of TSA's Passenger Screening Technologies and Processes at Airport Security Checkpoints. Details of this Classified report were leaked this summer and the Inspector General has given a briefing on the final report to this subcommittee. While I look forward to hearing the status of solutions that TSA and DHS are implementing to ensure that any security gaps associated with checkpoint screening and technologies are secure, our main concern is that TSA will continue to purchase more technologies that address the threats of yesterday instead of the threats of tomorrow.    Consequently, the Transportation Security Administration Reform and Improvement Act of 2015, a bill that recently passed the committee, includes language that aims to aid in the development and innovative security technologies through a program that would create public and private-sector partnerships to help businesses, particularly small businesses, to commercialize these innovative technologies. While that amendment is designed to improve the technologies TSA uses, I still have concerns about some of TSA's other screening programs the Inspector General has found ineffective.    For example, the Inspector General has found that TSA's behavioral detection program commonly referred to as SPOT is a magnet for racial profiling, and TSA has little evidence that the program is an effective tool for screening passengers. We know that terrorists span all races, in all ethnicities, and have a profiling mechanism as a means of security is skeptical. Once again, I ask the administrator to review its efficiency of the behavioral detection program.    While the administrator appeared before the committee on July 1, I, along with many of my colleagues across the aisle, stated that we would give him appropriate time to address some of these glaring concerns at TSA. So Mr. Administrator, we are glad to have you. I would assume the honeymoon is about over, and we can move forward. So I look forward to your testimony and I yield back.</t>
   </si>
   <si>
@@ -70,6 +85,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Roth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Roth. You are close, yes.</t>
   </si>
   <si>
@@ -82,6 +100,9 @@
     <t xml:space="preserve">    Mr. Katko. Those questions are indeed forthcoming, but before that Mr. Roth, I want to thank you for your testimony. I appreciate you being here.    I want to hear from our second witness, Administrator Neffenger, who I am sure the honeymoon is indeed over. You were confirmed in June 2015 as the sixth administrator of the TSA. You lead the security operations at more than 450 airports within the United States, and a workforce of almost 60,000 employees. Prior to joining TSA, Administrator Neffenger served admirably as the 29th vice commandant of the U.S. Coast Guard, and the Coast Guard's deputy commandant for operations. The Chair now recognizes Admiral Neffenger for his testimony.</t>
   </si>
   <si>
+    <t>Neffenger</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Neffenger. Thank you, and good afternoon Chairman Katko, Ranking Member Rice, distinguished Members of the subcommittee, and thank you for the opportunity to testify on my vision for answering these concerns and evolving the Transportation Security Administration.    As you noted, Mr. Chairman, TSA was founded from crisis, and has continued to evolve throughout its existence. Careful and sustained oversight by Congress, and audits by the Inspector General and GAO are critical elements of this process, and I am a strong supporter of such. I thank you for the support each of you has provided in exercising that oversight. I also want to thank Inspector General Roth for identifying areas for improvement in TSA. I met with him prior to my confirmation and met with him again during my first month as administrator to relay the seriousness with which I take his work. His team has been invaluable in helping us to identify the root causes of the recent covert testing results, and I thank him for his encouraging assessment of our new direction.    That direction is a reflection of my vision on how we approach the continuing evolution of TSA. As you noted, I am now 3 months into the job, and during that time, I have traveled to about 15 airports and numerous Federal Air Marshal offices across the country. I have also visited our partners in the United Kingdom, France, and the Netherlands, and I met with our stakeholders from the airlines, travel industry, and airport operators from major airports, including Los Angeles, Atlanta, Dallas, and Chicago. I have also been engaging with surface stakeholders and passenger rail and light rail both here and in Europe.    Throughout all of these visits, I have been thoroughly impressed with the professionals who occupy our ranks. I am speaking specifically of our front-line transportation security officers. In addition to our air marshals, our inspectors, and other employees, each of whom swore an oath to serve their Nation in a mission that encounters nearly 2 million travelers a day in the aviation sector alone. I have been impressed with the collaboration I have seen across the transportation enterprise and I am pleased that the range of capabilities our Federal, State, and local partners bring to bear across every sector.    These complex systems require that we systematically examine them and consider them as a whole; that we integrate this wide range of public and private capabilities, that we benchmark and apply best practices across the enterprise, and that we seek global consistency.    I can assure you that as we move forward, we remain an intelligence-driven, risk-based counterterrorism agency with a well-defined statement of mission, clear and unequivocal standards of performance, training, and resourcing that enabled the workforce to achieve success, and a relentless pursuit of excellence and accountability.    We will conduct counterterrorism operations with discipline and competence. We will invest in deliberately developing our workforce, and we will field advance capabilities responsive to a pervasive and dynamic threat. We have a no-fail mission, one for which the consequences of a successful attack overwhelm the risk equation and for which we must ensure we deliver mission success.    My immediate priority is to pursue solutions to the recent covert testing failures and I believe we are making significant progress in doing so. In response to the IG's findings, we have implemented an action plan to ensure leadership accountability, improve alarm resolution, increase effectiveness and deterrence, increase threat testing, and strengthen our procedures.    We have also responded vigorously to Secretary Johnson's 10-point plan to review and assess screening operations, including training for the entire screening workforce, testing and improving the technology, and implementing these new procedures. We will continue to implement this plan of action and provide regular updates to you and to the Secretary.    Of utmost concern is determining root causes for the failures noted. Our conclusion is that the screening effectiveness challenges were not merely a performance problem, nor were they a failure of the advanced imaging technology. Indeed, this technology has greatly enhanced our ability to detect threats and it continues to perform to expected standards when deployed and used properly.    Strong drivers of the problem, however, include leadership focus, environmental influences, and gaps in system design and processes along with a disproportionate focus on efficiency and speed in screening operations rather than security and effectiveness. These powerfully influenced organizational culture and officer performance. As a result, there was significant pressure to clear passengers quickly at the risk of not diligently resolving alarms.    Our analysis also revealed our officers did not fully understand the capabilities and limitations of the equipment and several procedures were inadequate to resolve alarms. We have trained our officers to understand and use the equipment properly and we have corrected our procedures. Solutions require a renewed focus on security, streamlined effective procedures, investments in technology, and realistic, consistent, standardized training along with a new balance between effectiveness and efficiency. We must support our officers as they perform their duties.    We will continue to partner with our airlines and other members of the travel and airport industry to ensure that we can reduce stress on the checkpoint and we will right-size and re-source TSA appropriately. Our near-term solutions will halt further reductions in officer staffing to support our revised screening efforts, provide consistent high-quality training at a centralized location, and enhance our technology.    Our Mission Essentials Training conducted over the past 2 months with every front-line officer and leader across TSA has helped to reset our focus on security effectiveness, and most critically, has enhanced our officers' knowledge of the screening systems that they operate.    I refer repeatedly how valuable this information is to our officers. I need to now extend that into our new-hire training across the country. We need greater consistency and efficiency in its delivery, and we must do more to establish a professional foundation that is required of a high-performing counterterrorism organization.    As such, I am committed to expanding our existing TSA Academy at the Federal Law Enforcement Training Center and plan to send all new-hire TSOs to basic training beginning in January 2016. Centralized training in a formal, professional academy ensures consistency and professionalism, produces greater enthusiasm, increased confidence and skills, and connectedness to a common agency culture and focus on mission.    We must ensure the appropriate measures of effectiveness are in place to drive an institutional focus on our primary mission. We must employ a culture of operational evolution, one that constantly reassesses assumptions, plans, and processes, so we are able to rapidly field new concepts of operation and we must deliver an effective system and earn the confidence of the traveling public through competence, discipline, performance, and professionalism.    We face a critical turning point in evolving TSA, both to address these recent findings and begin our investment in a strategic approach to securing the transportation sector. As such, I am committed to ensuring that we do so, that we employ multiple elements in intelligence-driven operations, while discarding a one-size-fits-all approach that we recruit and retain a highly-trained workforce, with accountability and high standards of performance.    Chairman Katko, Ranking Member Rice, we have an incredible challenge ahead of us, but I know that TSA is up to the task. I thank you for the opportunity to appear before you today, and I look forward to your questions.</t>
   </si>
   <si>
@@ -143,6 +164,12 @@
   </si>
   <si>
     <t>412435</t>
+  </si>
+  <si>
+    <t>Keating</t>
+  </si>
+  <si>
+    <t>William</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman. It was only me, anyway.</t>
@@ -521,7 +548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,7 +556,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,917 +578,1082 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G30" t="s">
+        <v>50</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>50</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G36" t="s">
+        <v>50</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>51</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>49</v>
+      </c>
+      <c r="G38" t="s">
+        <v>50</v>
+      </c>
       <c r="H38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99578.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99578.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412649</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Katko</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400402</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Thompson</t>
   </si>
   <si>
@@ -164,6 +173,9 @@
   </si>
   <si>
     <t>412435</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Keating</t>
@@ -548,7 +560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,1079 +593,1168 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
